--- a/biology/Botanique/Chambeyronia/Chambeyronia.xlsx
+++ b/biology/Botanique/Chambeyronia/Chambeyronia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chambeyronia est un genre de palmiers, des plantes de la famille des Arecaceae. Il est endémique en Nouvelle-Calédonie, où il est l'un des symboles de la biodiversité de l'archipel.
 Il a été nommé en hommage à Léon Chambeyron.
@@ -512,11 +524,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Arecoideae
 Tribu des Areceae
-Sous-tribu des Archontophoenicinae[2]
+Sous-tribu des Archontophoenicinae
 Le genre Chambeyronia partage sa sous-tribu avec quatre autres genres : 
 Actinorhytis, Archontophoenix, Actinokentia, Kentiopsis.
 </t>
@@ -547,9 +561,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Chambeyronia divaricata		 (Brongn.) Hodel &amp; C.F.Barrett
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chambeyronia divaricata		 (Brongn.) Hodel &amp; C.F.Barrett
 Chambeyronia houailouensis	Hodel &amp; C.F.Barrett
 Chambeyronia huerlimannii		 (H.E.Moore) Hodel &amp; C.F.Barrett
 Chambeyronia lepidota		    H.E.Moore
@@ -557,7 +573,7 @@
 Chambeyronia magnifica		 (H.E.Moore) Hodel &amp; C.F.Barrett
 Chambeyronia oliviformis		 (Brongn. &amp; Gris) Hodel &amp; C.F.Barrett
 Chambeyronia piersoniorum 	 (Pintaud &amp; Hodel) Hodel &amp; C.F.Barrett
-Chambeyronia pyriformi 		(Pintaud &amp; Hodel) Hodel &amp; C.F.Barrett [2]</t>
+Chambeyronia pyriformi 		(Pintaud &amp; Hodel) Hodel &amp; C.F.Barrett </t>
         </is>
       </c>
     </row>
